--- a/results/searchstims/source_data/3stims/test_results_table_mean_sd_single_col.xlsx
+++ b/results/searchstims/source_data/3stims/test_results_table_mean_sd_single_col.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.844 (0.844)</t>
+          <t>0.844 (0.004)</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.877 (0.877)</t>
+          <t>0.877 (0.007)</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.932 (0.932)</t>
+          <t>0.932 (0.007)</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.953 (0.953)</t>
+          <t>0.953 (0.003)</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.999 (0.999)</t>
+          <t>0.999 (0.001)</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.999 (0.999)</t>
+          <t>0.999 (0.001)</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000 (1.000)</t>
+          <t>1.000 (0.000)</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000 (1.000)</t>
+          <t>1.000 (0.000)</t>
         </is>
       </c>
     </row>
